--- a/uploads/lista_de_tarefas.xlsx
+++ b/uploads/lista_de_tarefas.xlsx
@@ -14,12 +14,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
   <si>
     <t>Tarefa</t>
   </si>
   <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Observação</t>
+  </si>
+  <si>
     <t>NEONATURE</t>
+  </si>
+  <si>
+    <t>05/02/2024</t>
+  </si>
+  <si>
+    <t>19 ETIQ</t>
+  </si>
+  <si>
+    <t>GWS</t>
+  </si>
+  <si>
+    <t>525 ETIQ</t>
+  </si>
+  <si>
+    <t>VANGUARDA</t>
+  </si>
+  <si>
+    <t>142 ETIQ</t>
+  </si>
+  <si>
+    <t>ASTROMIC</t>
+  </si>
+  <si>
+    <t>196 ETIQ</t>
+  </si>
+  <si>
+    <t>NEURO BETES</t>
+  </si>
+  <si>
+    <t>12 ETIQ</t>
+  </si>
+  <si>
+    <t>HERA</t>
+  </si>
+  <si>
+    <t>LUNO</t>
+  </si>
+  <si>
+    <t>385 ETIQ</t>
+  </si>
+  <si>
+    <t>MF</t>
+  </si>
+  <si>
+    <t>SEM PEDIDOS</t>
+  </si>
+  <si>
+    <t>RADT</t>
+  </si>
+  <si>
+    <t>DESAGITA</t>
+  </si>
+  <si>
+    <t>37 ETIQ</t>
+  </si>
+  <si>
+    <t>DIABETINA</t>
+  </si>
+  <si>
+    <t>FITNESS</t>
   </si>
 </sst>
 </file>
@@ -351,20 +417,153 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/lista_de_tarefas.xlsx
+++ b/uploads/lista_de_tarefas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Tarefa</t>
   </si>
@@ -28,16 +28,67 @@
     <t>Observação</t>
   </si>
   <si>
+    <t>NEONATURE</t>
+  </si>
+  <si>
+    <t>BAIXA DEMANDA / SUPORTE MEDIO</t>
+  </si>
+  <si>
     <t>GWS</t>
   </si>
   <si>
-    <t>28/02/2024</t>
-  </si>
-  <si>
-    <t>20</t>
+    <t>ALTA DEMANDA / SUPORTE MEDIO</t>
   </si>
   <si>
     <t>VANGUARDA</t>
+  </si>
+  <si>
+    <t>MEDIA DEMANDA / SUPORTE ALTO</t>
+  </si>
+  <si>
+    <t>ASTROMIC</t>
+  </si>
+  <si>
+    <t>ALTA DEMANDA / SUPORTE ALTO</t>
+  </si>
+  <si>
+    <t>NEURO BETES</t>
+  </si>
+  <si>
+    <t>POUCA DEMANDA / SUPORTE MEDIO</t>
+  </si>
+  <si>
+    <t>HERA</t>
+  </si>
+  <si>
+    <t>MEDIA DEMANDA / SUPORTE MEDIO</t>
+  </si>
+  <si>
+    <t>LUNO</t>
+  </si>
+  <si>
+    <t>MF</t>
+  </si>
+  <si>
+    <t>BAIXÍSSIMA DEMANDA / SUPORTE BAIXÍSSIMO EXCETO NOS DIAS QUE TEM PEDIDO</t>
+  </si>
+  <si>
+    <t>RADT</t>
+  </si>
+  <si>
+    <t>BAIXA DEMANDA / SUPORTE BAIXO</t>
+  </si>
+  <si>
+    <t>DESAGITA</t>
+  </si>
+  <si>
+    <t>DIABETINA</t>
+  </si>
+  <si>
+    <t>0 DEMANDA / SUPORTE NULO</t>
+  </si>
+  <si>
+    <t>SAUDE FITNESS</t>
   </si>
 </sst>
 </file>
@@ -369,7 +420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -393,22 +444,96 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
